--- a/Deliverables/Workplan.xlsx
+++ b/Deliverables/Workplan.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Documents\MSCS\Fall_2023\520\Project\PatientTrackerSystem\Deliverables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E9928-5377-4A56-9A58-62A33844C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -118,9 +127,6 @@
     <t>Riya Deshpande &amp; Riya Adsul</t>
   </si>
   <si>
-    <t>Not begun</t>
-  </si>
-  <si>
     <t>Perform integration testing to verify interactions between system modules.</t>
   </si>
   <si>
@@ -149,38 +155,54 @@
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm-yy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -188,7 +210,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,8 +225,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
-    <border/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF9A9A9A"/>
@@ -218,6 +246,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -232,6 +261,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -246,6 +276,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -257,6 +288,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -271,6 +304,7 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -279,6 +313,9 @@
       <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -293,6 +330,7 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -301,9 +339,11 @@
       <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -315,86 +355,168 @@
       <top style="thin">
         <color rgb="FF9A9A9A"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -584,567 +706,583 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8">
-        <v>45202.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>45212.0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>45202.0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45212.0</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="2">
+        <v>45202</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45212</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45202</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45212</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="E3" s="3">
+        <v>45202</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45202</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10" t="s">
+      <c r="E4" s="3">
+        <v>45202</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45202</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>45202.0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>45212.0</v>
-      </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="E5" s="3">
+        <v>45202</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45202</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45212</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="E6" s="3">
+        <v>45213</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45223</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45223</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="E7" s="3">
+        <v>45213</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45223</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45223</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10" t="s">
+      <c r="E8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45223</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45223</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>45213.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45223.0</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="3">
+        <v>45213</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45223</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45223</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45250.0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="14" t="s">
+      <c r="E10" s="3">
+        <v>45224</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45224</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45250.0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11" t="s">
+      <c r="E11" s="3">
+        <v>45224</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45224</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45250.0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11" t="s">
+      <c r="E12" s="3">
+        <v>45224</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45224</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45250.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>45224.0</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="E13" s="3">
+        <v>45224</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45224</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="12">
-        <v>45226.0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45250.0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>45228.0</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="E14" s="3">
+        <v>45226</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45250</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45228</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12">
-        <v>45251.0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>45283.0</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18" t="s">
+      <c r="E15" s="3">
+        <v>45251</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45283</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="3">
+        <v>45253</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45288</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="12">
-        <v>45253.0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45288.0</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45258</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45260</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="19">
-        <v>45258.0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>45260.0</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="5">
+        <v>45251</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45290</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45261</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45262</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45263</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45264</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45264</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45266</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45261</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45266</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="19">
-        <v>45251.0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>45290.0</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="12">
-        <v>45261.0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>45262.0</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="12">
-        <v>45263.0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>45264.0</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="12">
-        <v>45264.0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>45266.0</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="12">
-        <v>45261.0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>45266.0</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12">
-        <v>45261.0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>45265.0</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="E23" s="25">
+        <v>45261</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45265</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverables/Workplan.xlsx
+++ b/Deliverables/Workplan.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Documents\MSCS\Fall_2023\520\Project\PatientTrackerSystem\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E9928-5377-4A56-9A58-62A33844C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC35E7-CBD1-411D-8642-2DD62892ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$23</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -409,10 +425,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -428,32 +440,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,6 +459,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -480,14 +493,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,15 +734,15 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
@@ -739,42 +755,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2">
@@ -789,17 +805,17 @@
       <c r="H2" s="2">
         <v>45212</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3">
@@ -814,15 +830,15 @@
       <c r="H3" s="3">
         <v>45212</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3">
@@ -837,15 +853,15 @@
       <c r="H4" s="3">
         <v>45212</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3">
@@ -860,19 +876,19 @@
       <c r="H5" s="3">
         <v>45212</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3">
@@ -887,17 +903,17 @@
       <c r="H6" s="3">
         <v>45223</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3">
@@ -912,15 +928,15 @@
       <c r="H7" s="3">
         <v>45223</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3">
@@ -935,15 +951,15 @@
       <c r="H8" s="3">
         <v>45223</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
@@ -958,19 +974,19 @@
       <c r="H9" s="3">
         <v>45223</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3">
@@ -983,17 +999,17 @@
         <v>45224</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3">
@@ -1006,15 +1022,15 @@
         <v>45224</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="3">
@@ -1027,15 +1043,15 @@
         <v>45224</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3">
@@ -1048,15 +1064,15 @@
         <v>45224</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3">
@@ -1069,19 +1085,19 @@
         <v>45228</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="25">
         <v>4</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="3">
@@ -1097,12 +1113,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="3">
@@ -1116,12 +1132,12 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5">
@@ -1135,12 +1151,12 @@
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="5">
@@ -1154,16 +1170,16 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="25">
         <v>5</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3">
@@ -1179,12 +1195,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="3">
@@ -1198,12 +1214,12 @@
       <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="3">
@@ -1217,12 +1233,12 @@
       <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="3">
@@ -1236,15 +1252,15 @@
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="14">
         <v>45261</v>
       </c>
       <c r="F23" s="3">
@@ -1256,8 +1272,8 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1266,6 +1282,7 @@
       <c r="I24" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
